--- a/src/resources/excel-model/单位问卷—社会团体及民办非企业单位—打印版.xlsx
+++ b/src/resources/excel-model/单位问卷—社会团体及民办非企业单位—打印版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单位情况" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="流失人才" sheetId="23" r:id="rId5"/>
     <sheet name="增量" sheetId="24" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1886,6 +1886,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>单位流失人才信息表</t>
     </r>
     <r>
@@ -1983,16 +1990,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流入地</t>
-    </r>
+    <t>流入地（省/市)</t>
   </si>
   <si>
     <t>人才层次</t>
@@ -2066,6 +2064,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>单位人才需求调查表</t>
     </r>
     <r>
@@ -2180,10 +2185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2305,11 +2310,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2322,67 +2371,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2403,19 +2392,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2428,13 +2440,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2472,7 +2477,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,25 +2567,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2514,67 +2621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2592,37 +2645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2634,25 +2657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2755,80 +2760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2852,6 +2783,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2860,10 +2865,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2872,133 +2877,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3056,6 +3061,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3121,9 +3129,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3483,22 +3488,22 @@
   <sheetPr/>
   <dimension ref="A3:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="10.6333333333333" style="44" customWidth="1"/>
-    <col min="5" max="5" width="10.6333333333333" style="45" customWidth="1"/>
-    <col min="6" max="10" width="10.6333333333333" style="44" customWidth="1"/>
-    <col min="11" max="11" width="37.725" style="44" customWidth="1"/>
-    <col min="12" max="12" width="31.3666666666667" style="44" customWidth="1"/>
+    <col min="1" max="4" width="10.6296296296296" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.6296296296296" style="45" customWidth="1"/>
+    <col min="6" max="10" width="10.6296296296296" style="44" customWidth="1"/>
+    <col min="11" max="11" width="37.7222222222222" style="44" customWidth="1"/>
+    <col min="12" max="12" width="31.3703703703704" style="44" customWidth="1"/>
     <col min="13" max="16373" width="8" style="44" customWidth="1"/>
     <col min="16374" max="16379" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="18.75" spans="1:10">
+    <row r="3" ht="17.4" spans="1:10">
       <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
@@ -3512,7 +3517,7 @@
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" ht="18.75" spans="1:10">
+    <row r="4" ht="17.4" spans="1:10">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -3524,7 +3529,7 @@
       <c r="I4" s="46"/>
       <c r="J4" s="46"/>
     </row>
-    <row r="5" ht="18.75" spans="1:10">
+    <row r="5" ht="17.4" spans="1:10">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -3536,7 +3541,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
     </row>
-    <row r="6" ht="18.75" spans="1:10">
+    <row r="6" ht="17.4" spans="1:10">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -3634,7 +3639,7 @@
       <c r="I13" s="49"/>
       <c r="J13" s="49"/>
     </row>
-    <row r="14" s="44" customFormat="1" ht="15.75" spans="1:12">
+    <row r="14" s="44" customFormat="1" ht="15.6" spans="1:12">
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
@@ -3652,7 +3657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="44" customFormat="1" ht="15.75" spans="1:12">
+    <row r="15" s="44" customFormat="1" ht="15.6" spans="1:12">
       <c r="A15" s="47"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
@@ -3688,7 +3693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" s="44" customFormat="1" ht="15.75" spans="1:12">
+    <row r="17" s="44" customFormat="1" ht="15.6" spans="1:12">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -3706,7 +3711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" s="44" customFormat="1" ht="15.75" spans="1:12">
+    <row r="18" s="44" customFormat="1" ht="15.6" spans="1:12">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -3724,7 +3729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" s="44" customFormat="1" ht="15.75" spans="1:12">
+    <row r="19" s="44" customFormat="1" ht="15.6" spans="1:12">
       <c r="A19" s="47"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
@@ -3742,7 +3747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" s="44" customFormat="1" ht="15.75" spans="1:12">
+    <row r="20" s="44" customFormat="1" ht="15.6" spans="1:12">
       <c r="A20" s="47"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
@@ -3760,7 +3765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" s="44" customFormat="1" ht="15.75" spans="1:12">
+    <row r="21" s="44" customFormat="1" ht="15.6" spans="1:12">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -3778,7 +3783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" s="44" customFormat="1" ht="15.75" spans="1:12">
+    <row r="22" s="44" customFormat="1" ht="15.6" spans="1:12">
       <c r="A22" s="47"/>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
@@ -3796,7 +3801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" s="44" customFormat="1" ht="15.75" spans="1:12">
+    <row r="23" s="44" customFormat="1" ht="15.6" spans="1:12">
       <c r="A23" s="47"/>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -4125,17 +4130,17 @@
       <selection activeCell="CA13" sqref="CA13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.63333333333333" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.62962962962963" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4.26666666666667" style="23" customWidth="1"/>
-    <col min="2" max="5" width="2.63333333333333" style="23" customWidth="1"/>
-    <col min="6" max="118" width="2.63333333333333" style="42" customWidth="1"/>
-    <col min="119" max="135" width="2.63333333333333" style="23" customWidth="1"/>
-    <col min="136" max="144" width="2.09166666666667" style="23" customWidth="1"/>
-    <col min="145" max="16384" width="2.63333333333333" style="23"/>
+    <col min="1" max="1" width="4.26851851851852" style="24" customWidth="1"/>
+    <col min="2" max="5" width="2.62962962962963" style="24" customWidth="1"/>
+    <col min="6" max="118" width="2.62962962962963" style="42" customWidth="1"/>
+    <col min="119" max="135" width="2.62962962962963" style="24" customWidth="1"/>
+    <col min="136" max="144" width="2.09259259259259" style="24" customWidth="1"/>
+    <col min="145" max="16384" width="2.62962962962963" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:67">
+    <row r="1" ht="17.4" spans="1:67">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -4207,7 +4212,7 @@
       <c r="BO1" s="2"/>
     </row>
     <row r="2" spans="118:118">
-      <c r="DN2" s="23"/>
+      <c r="DN2" s="24"/>
     </row>
     <row r="3" s="41" customFormat="1" ht="14" customHeight="1" spans="1:66">
       <c r="A3" s="12" t="s">
@@ -4219,10 +4224,10 @@
       <c r="C3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
@@ -4237,66 +4242,66 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="39"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="40"/>
     </row>
     <row r="4" s="41" customFormat="1" ht="14" customHeight="1" spans="1:66">
       <c r="A4" s="15"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -4307,19 +4312,19 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="39"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="40"/>
       <c r="AA4" s="5" t="s">
         <v>31</v>
       </c>
@@ -4436,90 +4441,90 @@
       <c r="Z5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA5" s="36" t="s">
+      <c r="AA5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="36" t="s">
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="36" t="s">
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="36" t="s">
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="36" t="s">
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="36" t="s">
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="36" t="s">
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="39"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="40"/>
     </row>
     <row r="6" s="41" customFormat="1" ht="45" customHeight="1" spans="1:66">
       <c r="A6" s="43"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
       <c r="AA6" s="5" t="s">
         <v>63</v>
       </c>
@@ -4648,399 +4653,399 @@
       <c r="B7" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="35">
         <v>1</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="35">
         <v>2</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="35">
         <v>3</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="35">
         <v>4</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="35">
         <v>5</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="35">
         <v>6</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="35">
         <v>7</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="35">
         <v>8</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="35">
         <v>9</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="35">
         <v>10</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="35">
         <v>11</v>
       </c>
-      <c r="N7" s="34">
+      <c r="N7" s="35">
         <v>12</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="35">
         <v>13</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="35">
         <v>14</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="35">
         <v>15</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="35">
         <v>16</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="35">
         <v>17</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="35">
         <v>18</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="35">
         <v>19</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="35">
         <v>20</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="35">
         <v>21</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="35">
         <v>22</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="35">
         <v>23</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="35">
         <v>24</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7" s="35">
         <v>25</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7" s="35">
         <v>26</v>
       </c>
-      <c r="AC7" s="34">
+      <c r="AC7" s="35">
         <v>27</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7" s="35">
         <v>28</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7" s="35">
         <v>29</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="35">
         <v>30</v>
       </c>
-      <c r="AG7" s="34">
+      <c r="AG7" s="35">
         <v>31</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="35">
         <v>32</v>
       </c>
-      <c r="AI7" s="34">
+      <c r="AI7" s="35">
         <v>33</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="35">
         <v>34</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="35">
         <v>35</v>
       </c>
-      <c r="AL7" s="34">
+      <c r="AL7" s="35">
         <v>36</v>
       </c>
-      <c r="AM7" s="34">
+      <c r="AM7" s="35">
         <v>37</v>
       </c>
-      <c r="AN7" s="34">
+      <c r="AN7" s="35">
         <v>38</v>
       </c>
-      <c r="AO7" s="34">
+      <c r="AO7" s="35">
         <v>39</v>
       </c>
-      <c r="AP7" s="34">
+      <c r="AP7" s="35">
         <v>40</v>
       </c>
-      <c r="AQ7" s="34">
+      <c r="AQ7" s="35">
         <v>41</v>
       </c>
-      <c r="AR7" s="34">
+      <c r="AR7" s="35">
         <v>42</v>
       </c>
-      <c r="AS7" s="34">
+      <c r="AS7" s="35">
         <v>43</v>
       </c>
-      <c r="AT7" s="34">
+      <c r="AT7" s="35">
         <v>44</v>
       </c>
-      <c r="AU7" s="34">
+      <c r="AU7" s="35">
         <v>45</v>
       </c>
-      <c r="AV7" s="34">
+      <c r="AV7" s="35">
         <v>46</v>
       </c>
-      <c r="AW7" s="34">
+      <c r="AW7" s="35">
         <v>47</v>
       </c>
-      <c r="AX7" s="34">
+      <c r="AX7" s="35">
         <v>48</v>
       </c>
-      <c r="AY7" s="34">
+      <c r="AY7" s="35">
         <v>49</v>
       </c>
-      <c r="AZ7" s="34">
+      <c r="AZ7" s="35">
         <v>50</v>
       </c>
-      <c r="BA7" s="34">
+      <c r="BA7" s="35">
         <v>51</v>
       </c>
-      <c r="BB7" s="34">
+      <c r="BB7" s="35">
         <v>52</v>
       </c>
-      <c r="BC7" s="34">
+      <c r="BC7" s="35">
         <v>53</v>
       </c>
-      <c r="BD7" s="34">
+      <c r="BD7" s="35">
         <v>54</v>
       </c>
-      <c r="BE7" s="34">
+      <c r="BE7" s="35">
         <v>55</v>
       </c>
-      <c r="BF7" s="34">
+      <c r="BF7" s="35">
         <v>56</v>
       </c>
-      <c r="BG7" s="34">
+      <c r="BG7" s="35">
         <v>57</v>
       </c>
-      <c r="BH7" s="34">
+      <c r="BH7" s="35">
         <v>58</v>
       </c>
-      <c r="BI7" s="34">
+      <c r="BI7" s="35">
         <v>59</v>
       </c>
-      <c r="BJ7" s="34">
+      <c r="BJ7" s="35">
         <v>60</v>
       </c>
-      <c r="BK7" s="34">
+      <c r="BK7" s="35">
         <v>61</v>
       </c>
-      <c r="BL7" s="34">
+      <c r="BL7" s="35">
         <v>62</v>
       </c>
-      <c r="BM7" s="34">
+      <c r="BM7" s="35">
         <v>63</v>
       </c>
-      <c r="BN7" s="34">
+      <c r="BN7" s="35">
         <v>64</v>
       </c>
     </row>
-    <row r="8" ht="63" spans="1:118">
+    <row r="8" ht="67.2" spans="1:118">
       <c r="A8" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="V8" s="38" t="s">
+      <c r="V8" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W8" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" s="38" t="s">
+      <c r="Y8" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" s="38" t="s">
+      <c r="Z8" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="AD8" s="35" t="s">
+      <c r="AD8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" s="35" t="s">
+      <c r="AE8" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="AF8" s="35" t="s">
+      <c r="AF8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="AH8" s="34" t="s">
+      <c r="AH8" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="AI8" s="34" t="s">
+      <c r="AI8" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="AJ8" s="34" t="s">
+      <c r="AJ8" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="AK8" s="34" t="s">
+      <c r="AK8" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AL8" s="34" t="s">
+      <c r="AL8" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AM8" s="34" t="s">
+      <c r="AM8" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AN8" s="34" t="s">
+      <c r="AN8" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AO8" s="34" t="s">
+      <c r="AO8" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="AP8" s="34" t="s">
+      <c r="AP8" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AQ8" s="34" t="s">
+      <c r="AQ8" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="AR8" s="34" t="s">
+      <c r="AR8" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="AS8" s="34" t="s">
+      <c r="AS8" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="AT8" s="34" t="s">
+      <c r="AT8" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="AU8" s="34" t="s">
+      <c r="AU8" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AV8" s="34" t="s">
+      <c r="AV8" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AW8" s="34" t="s">
+      <c r="AW8" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AX8" s="34" t="s">
+      <c r="AX8" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="AY8" s="34" t="s">
+      <c r="AY8" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="AZ8" s="34" t="s">
+      <c r="AZ8" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="BA8" s="34" t="s">
+      <c r="BA8" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="BB8" s="34" t="s">
+      <c r="BB8" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="BC8" s="34" t="s">
+      <c r="BC8" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="BD8" s="34" t="s">
+      <c r="BD8" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="BE8" s="34" t="s">
+      <c r="BE8" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="BF8" s="34" t="s">
+      <c r="BF8" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="BG8" s="34" t="s">
+      <c r="BG8" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="BH8" s="34" t="s">
+      <c r="BH8" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="BI8" s="34" t="s">
+      <c r="BI8" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="BJ8" s="34" t="s">
+      <c r="BJ8" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="BK8" s="34" t="s">
+      <c r="BK8" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BL8" s="34" t="s">
+      <c r="BL8" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="BM8" s="34" t="s">
+      <c r="BM8" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BN8" s="34" t="s">
+      <c r="BN8" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="DN8" s="23"/>
+      <c r="DN8" s="24"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:70">
       <c r="A11" s="12" t="s">
@@ -5049,66 +5054,66 @@
       <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="37"/>
-      <c r="AW11" s="37"/>
-      <c r="AX11" s="37"/>
-      <c r="AY11" s="37"/>
-      <c r="AZ11" s="37"/>
-      <c r="BA11" s="37"/>
-      <c r="BB11" s="37"/>
-      <c r="BC11" s="37"/>
-      <c r="BD11" s="37"/>
-      <c r="BE11" s="37"/>
-      <c r="BF11" s="37"/>
-      <c r="BG11" s="37"/>
-      <c r="BH11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="40"/>
       <c r="BI11" s="9" t="s">
         <v>136</v>
       </c>
@@ -5125,53 +5130,53 @@
     <row r="12" ht="14" customHeight="1" spans="1:70">
       <c r="A12" s="15"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="37"/>
-      <c r="AT12" s="37"/>
-      <c r="AU12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="40"/>
       <c r="AV12" s="5" t="s">
         <v>137</v>
       </c>
@@ -5207,13 +5212,13 @@
     <row r="13" ht="65" customHeight="1" spans="1:70">
       <c r="A13" s="15"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="5" t="s">
         <v>141</v>
       </c>
@@ -5305,7 +5310,7 @@
       </c>
       <c r="BG13" s="14"/>
       <c r="BH13" s="14"/>
-      <c r="BI13" s="40" t="s">
+      <c r="BI13" s="18" t="s">
         <v>159</v>
       </c>
       <c r="BJ13" s="11" t="s">
@@ -5338,7 +5343,7 @@
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:70">
       <c r="A14" s="43"/>
-      <c r="B14" s="34"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
@@ -5474,451 +5479,451 @@
       <c r="AU14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="34"/>
-      <c r="BC14" s="34"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="34"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="34"/>
-      <c r="BR14" s="34"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="35"/>
+      <c r="BH14" s="35"/>
+      <c r="BI14" s="35"/>
+      <c r="BJ14" s="35"/>
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="35"/>
+      <c r="BO14" s="35"/>
+      <c r="BP14" s="35"/>
+      <c r="BQ14" s="35"/>
+      <c r="BR14" s="35"/>
     </row>
-    <row r="15" ht="13.5" spans="1:70">
+    <row r="15" spans="1:70">
       <c r="A15" s="43" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="35">
         <v>65</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="35">
         <v>66</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="35">
         <v>67</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="35">
         <v>68</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="35">
         <v>69</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="35">
         <v>70</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="35">
         <v>71</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="35">
         <v>72</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="35">
         <v>73</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="35">
         <v>74</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="35">
         <v>75</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="35">
         <v>76</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="35">
         <v>77</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="35">
         <v>78</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="35">
         <v>79</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="35">
         <v>80</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="35">
         <v>81</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="35">
         <v>82</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="35">
         <v>83</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="35">
         <v>84</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="35">
         <v>85</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15" s="35">
         <v>86</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="35">
         <v>87</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15" s="35">
         <v>88</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15" s="35">
         <v>89</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="35">
         <v>90</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15" s="35">
         <v>91</v>
       </c>
-      <c r="AD15" s="34">
+      <c r="AD15" s="35">
         <v>92</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="35">
         <v>93</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15" s="35">
         <v>94</v>
       </c>
-      <c r="AG15" s="34">
+      <c r="AG15" s="35">
         <v>95</v>
       </c>
-      <c r="AH15" s="34">
+      <c r="AH15" s="35">
         <v>96</v>
       </c>
-      <c r="AI15" s="34">
+      <c r="AI15" s="35">
         <v>97</v>
       </c>
-      <c r="AJ15" s="34">
+      <c r="AJ15" s="35">
         <v>98</v>
       </c>
-      <c r="AK15" s="34">
+      <c r="AK15" s="35">
         <v>99</v>
       </c>
-      <c r="AL15" s="34">
+      <c r="AL15" s="35">
         <v>100</v>
       </c>
-      <c r="AM15" s="34">
+      <c r="AM15" s="35">
         <v>101</v>
       </c>
-      <c r="AN15" s="34">
+      <c r="AN15" s="35">
         <v>102</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="AO15" s="35">
         <v>103</v>
       </c>
-      <c r="AP15" s="34">
+      <c r="AP15" s="35">
         <v>104</v>
       </c>
-      <c r="AQ15" s="34">
+      <c r="AQ15" s="35">
         <v>105</v>
       </c>
-      <c r="AR15" s="34">
+      <c r="AR15" s="35">
         <v>106</v>
       </c>
-      <c r="AS15" s="34">
+      <c r="AS15" s="35">
         <v>107</v>
       </c>
-      <c r="AT15" s="34">
+      <c r="AT15" s="35">
         <v>108</v>
       </c>
-      <c r="AU15" s="34">
+      <c r="AU15" s="35">
         <v>109</v>
       </c>
-      <c r="AV15" s="34">
+      <c r="AV15" s="35">
         <v>110</v>
       </c>
-      <c r="AW15" s="34">
+      <c r="AW15" s="35">
         <v>111</v>
       </c>
-      <c r="AX15" s="34">
+      <c r="AX15" s="35">
         <v>112</v>
       </c>
-      <c r="AY15" s="34">
+      <c r="AY15" s="35">
         <v>113</v>
       </c>
-      <c r="AZ15" s="34">
+      <c r="AZ15" s="35">
         <v>114</v>
       </c>
-      <c r="BA15" s="34">
+      <c r="BA15" s="35">
         <v>115</v>
       </c>
-      <c r="BB15" s="34">
+      <c r="BB15" s="35">
         <v>116</v>
       </c>
-      <c r="BC15" s="34">
+      <c r="BC15" s="35">
         <v>117</v>
       </c>
-      <c r="BD15" s="34">
+      <c r="BD15" s="35">
         <v>118</v>
       </c>
-      <c r="BE15" s="34">
+      <c r="BE15" s="35">
         <v>119</v>
       </c>
-      <c r="BF15" s="34">
+      <c r="BF15" s="35">
         <v>120</v>
       </c>
-      <c r="BG15" s="34">
+      <c r="BG15" s="35">
         <v>121</v>
       </c>
-      <c r="BH15" s="34">
+      <c r="BH15" s="35">
         <v>122</v>
       </c>
-      <c r="BI15" s="34">
+      <c r="BI15" s="35">
         <v>123</v>
       </c>
-      <c r="BJ15" s="34">
+      <c r="BJ15" s="35">
         <v>124</v>
       </c>
-      <c r="BK15" s="34">
+      <c r="BK15" s="35">
         <v>125</v>
       </c>
-      <c r="BL15" s="34">
+      <c r="BL15" s="35">
         <v>126</v>
       </c>
-      <c r="BM15" s="34">
+      <c r="BM15" s="35">
         <v>127</v>
       </c>
-      <c r="BN15" s="34">
+      <c r="BN15" s="35">
         <v>128</v>
       </c>
-      <c r="BO15" s="34">
+      <c r="BO15" s="35">
         <v>129</v>
       </c>
-      <c r="BP15" s="34">
+      <c r="BP15" s="35">
         <v>130</v>
       </c>
-      <c r="BQ15" s="34">
+      <c r="BQ15" s="35">
         <v>131</v>
       </c>
-      <c r="BR15" s="34">
+      <c r="BR15" s="35">
         <v>132</v>
       </c>
     </row>
-    <row r="16" ht="63" spans="1:70">
+    <row r="16" ht="67.2" spans="1:70">
       <c r="A16" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O16" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="P16" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="R16" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="V16" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="X16" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="Y16" s="35" t="s">
+      <c r="Y16" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="AA16" s="35" t="s">
+      <c r="AA16" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="AB16" s="35" t="s">
+      <c r="AB16" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AC16" s="35" t="s">
+      <c r="AC16" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AD16" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" s="35" t="s">
+      <c r="AE16" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="AF16" s="35" t="s">
+      <c r="AF16" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="AG16" s="35" t="s">
+      <c r="AG16" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="AH16" s="35" t="s">
+      <c r="AH16" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="AI16" s="35" t="s">
+      <c r="AI16" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="AJ16" s="35" t="s">
+      <c r="AJ16" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="AK16" s="35" t="s">
+      <c r="AK16" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="AL16" s="35" t="s">
+      <c r="AL16" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="AM16" s="35" t="s">
+      <c r="AM16" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="AN16" s="35" t="s">
+      <c r="AN16" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="AO16" s="35" t="s">
+      <c r="AO16" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="AP16" s="35" t="s">
+      <c r="AP16" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="AQ16" s="35" t="s">
+      <c r="AQ16" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="AR16" s="35" t="s">
+      <c r="AR16" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="AS16" s="35" t="s">
+      <c r="AS16" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="AT16" s="35" t="s">
+      <c r="AT16" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="AU16" s="35" t="s">
+      <c r="AU16" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="AV16" s="35" t="s">
+      <c r="AV16" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="AW16" s="35" t="s">
+      <c r="AW16" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="AX16" s="35" t="s">
+      <c r="AX16" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="AY16" s="35" t="s">
+      <c r="AY16" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="AZ16" s="35" t="s">
+      <c r="AZ16" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="BA16" s="35" t="s">
+      <c r="BA16" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="BB16" s="35" t="s">
+      <c r="BB16" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="BC16" s="35" t="s">
+      <c r="BC16" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="BD16" s="35" t="s">
+      <c r="BD16" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="BE16" s="35" t="s">
+      <c r="BE16" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="BF16" s="35" t="s">
+      <c r="BF16" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="BG16" s="35" t="s">
+      <c r="BG16" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="BH16" s="35" t="s">
+      <c r="BH16" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="BI16" s="35" t="s">
+      <c r="BI16" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="BJ16" s="35" t="s">
+      <c r="BJ16" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="BK16" s="35" t="s">
+      <c r="BK16" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="BL16" s="35" t="s">
+      <c r="BL16" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="BM16" s="35" t="s">
+      <c r="BM16" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="BN16" s="35" t="s">
+      <c r="BN16" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="BO16" s="35" t="s">
+      <c r="BO16" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="BP16" s="35" t="s">
+      <c r="BP16" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="BQ16" s="35" t="s">
+      <c r="BQ16" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="BR16" s="35" t="s">
+      <c r="BR16" s="36" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6023,18 +6028,18 @@
       <selection activeCell="CD9" sqref="CD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.0925925925926" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" style="23" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="24" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="9" max="125" width="2.63333333333333" style="26" customWidth="1"/>
-    <col min="126" max="16380" width="18.0916666666667" style="26" customWidth="1"/>
-    <col min="16381" max="16384" width="18.0916666666667" style="24" customWidth="1"/>
+    <col min="1" max="1" width="4" style="24" customWidth="1"/>
+    <col min="2" max="2" width="2.62962962962963" style="24" customWidth="1"/>
+    <col min="3" max="6" width="2.62962962962963" style="25" customWidth="1"/>
+    <col min="7" max="8" width="2.62962962962963" style="26" customWidth="1"/>
+    <col min="9" max="125" width="2.62962962962963" style="27" customWidth="1"/>
+    <col min="126" max="16380" width="18.0925925925926" style="27" customWidth="1"/>
+    <col min="16381" max="16384" width="18.0925925925926" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:70">
+    <row r="1" ht="17.4" spans="1:70">
       <c r="A1" s="1" t="s">
         <v>237</v>
       </c>
@@ -6109,22 +6114,22 @@
       <c r="BR1" s="2"/>
     </row>
     <row r="2" spans="16380:16380">
-      <c r="XEZ2" s="24"/>
+      <c r="XEZ2" s="25"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:16380">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
@@ -6132,97 +6137,97 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="36" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="39"/>
-      <c r="XEZ3" s="24"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="40"/>
+      <c r="XEZ3" s="25"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:16380">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="36" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="39"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="40"/>
       <c r="AA4" s="5" t="s">
         <v>31</v>
       </c>
@@ -6265,16 +6270,16 @@
       <c r="BL4" s="5"/>
       <c r="BM4" s="5"/>
       <c r="BN4" s="5"/>
-      <c r="XEZ4" s="24"/>
+      <c r="XEZ4" s="25"/>
     </row>
     <row r="5" ht="65" customHeight="1" spans="1:16380">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -6292,19 +6297,19 @@
       <c r="J5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="29" t="s">
         <v>43</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -6340,48 +6345,48 @@
       <c r="Z5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA5" s="36" t="s">
+      <c r="AA5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="36" t="s">
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="36" t="s">
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="36" t="s">
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="36" t="s">
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="39"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="40"/>
       <c r="BE5" s="5" t="s">
         <v>61</v>
       </c>
@@ -6389,42 +6394,42 @@
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
       <c r="BI5" s="5"/>
-      <c r="BJ5" s="36" t="s">
+      <c r="BJ5" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="39"/>
-      <c r="XEZ5" s="24"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="40"/>
+      <c r="XEZ5" s="25"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:16380">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
       <c r="AA6" s="5" t="s">
         <v>63</v>
       </c>
@@ -6545,208 +6550,208 @@
       <c r="BN6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="XEZ6" s="24"/>
+      <c r="XEZ6" s="25"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:16380">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="34">
         <v>1</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="34">
         <v>2</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="34">
         <v>3</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="34">
         <v>4</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="34">
         <v>5</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="34">
         <v>6</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="34">
         <v>7</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="34">
         <v>8</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="34">
         <v>9</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="34">
         <v>10</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="34">
         <v>11</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="34">
         <v>12</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="34">
         <v>13</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="35">
         <v>14</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="35">
         <v>15</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="35">
         <v>16</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="35">
         <v>17</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="35">
         <v>18</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="35">
         <v>19</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="35">
         <v>20</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="35">
         <v>21</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="35">
         <v>22</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="35">
         <v>23</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="35">
         <v>24</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7" s="35">
         <v>25</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7" s="35">
         <v>26</v>
       </c>
-      <c r="AC7" s="34">
+      <c r="AC7" s="35">
         <v>27</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7" s="35">
         <v>28</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7" s="35">
         <v>29</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="35">
         <v>30</v>
       </c>
-      <c r="AG7" s="34">
+      <c r="AG7" s="35">
         <v>31</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="35">
         <v>32</v>
       </c>
-      <c r="AI7" s="34">
+      <c r="AI7" s="35">
         <v>33</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="35">
         <v>34</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="35">
         <v>35</v>
       </c>
-      <c r="AL7" s="34">
+      <c r="AL7" s="35">
         <v>36</v>
       </c>
-      <c r="AM7" s="34">
+      <c r="AM7" s="35">
         <v>37</v>
       </c>
-      <c r="AN7" s="34">
+      <c r="AN7" s="35">
         <v>38</v>
       </c>
-      <c r="AO7" s="34">
+      <c r="AO7" s="35">
         <v>39</v>
       </c>
-      <c r="AP7" s="34">
+      <c r="AP7" s="35">
         <v>40</v>
       </c>
-      <c r="AQ7" s="34">
+      <c r="AQ7" s="35">
         <v>41</v>
       </c>
-      <c r="AR7" s="34">
+      <c r="AR7" s="35">
         <v>42</v>
       </c>
-      <c r="AS7" s="34">
+      <c r="AS7" s="35">
         <v>43</v>
       </c>
-      <c r="AT7" s="34">
+      <c r="AT7" s="35">
         <v>44</v>
       </c>
-      <c r="AU7" s="34">
+      <c r="AU7" s="35">
         <v>45</v>
       </c>
-      <c r="AV7" s="34">
+      <c r="AV7" s="35">
         <v>46</v>
       </c>
-      <c r="AW7" s="34">
+      <c r="AW7" s="35">
         <v>47</v>
       </c>
-      <c r="AX7" s="34">
+      <c r="AX7" s="35">
         <v>48</v>
       </c>
-      <c r="AY7" s="34">
+      <c r="AY7" s="35">
         <v>49</v>
       </c>
-      <c r="AZ7" s="34">
+      <c r="AZ7" s="35">
         <v>50</v>
       </c>
-      <c r="BA7" s="34">
+      <c r="BA7" s="35">
         <v>51</v>
       </c>
-      <c r="BB7" s="34">
+      <c r="BB7" s="35">
         <v>52</v>
       </c>
-      <c r="BC7" s="34">
+      <c r="BC7" s="35">
         <v>53</v>
       </c>
-      <c r="BD7" s="34">
+      <c r="BD7" s="35">
         <v>54</v>
       </c>
-      <c r="BE7" s="34">
+      <c r="BE7" s="35">
         <v>55</v>
       </c>
-      <c r="BF7" s="34">
+      <c r="BF7" s="35">
         <v>56</v>
       </c>
-      <c r="BG7" s="34">
+      <c r="BG7" s="35">
         <v>57</v>
       </c>
-      <c r="BH7" s="34">
+      <c r="BH7" s="35">
         <v>58</v>
       </c>
-      <c r="BI7" s="34">
+      <c r="BI7" s="35">
         <v>59</v>
       </c>
-      <c r="BJ7" s="34">
+      <c r="BJ7" s="35">
         <v>60</v>
       </c>
-      <c r="BK7" s="34">
+      <c r="BK7" s="35">
         <v>61</v>
       </c>
-      <c r="BL7" s="34">
+      <c r="BL7" s="35">
         <v>62</v>
       </c>
-      <c r="BM7" s="34">
+      <c r="BM7" s="35">
         <v>63</v>
       </c>
-      <c r="BN7" s="34">
+      <c r="BN7" s="35">
         <v>64</v>
       </c>
-      <c r="XEZ7" s="24"/>
+      <c r="XEZ7" s="25"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:16380">
       <c r="A8" s="6" t="s">
@@ -6755,267 +6760,267 @@
       <c r="B8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="V8" s="38" t="s">
+      <c r="V8" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W8" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" s="38" t="s">
+      <c r="Y8" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" s="38" t="s">
+      <c r="Z8" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="AD8" s="35" t="s">
+      <c r="AD8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" s="35" t="s">
+      <c r="AE8" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="AF8" s="35" t="s">
+      <c r="AF8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="AH8" s="34" t="s">
+      <c r="AH8" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="AI8" s="34" t="s">
+      <c r="AI8" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="AJ8" s="34" t="s">
+      <c r="AJ8" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="AK8" s="34" t="s">
+      <c r="AK8" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AL8" s="34" t="s">
+      <c r="AL8" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AM8" s="34" t="s">
+      <c r="AM8" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AN8" s="34" t="s">
+      <c r="AN8" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AO8" s="34" t="s">
+      <c r="AO8" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="AP8" s="34" t="s">
+      <c r="AP8" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AQ8" s="34" t="s">
+      <c r="AQ8" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="AR8" s="34" t="s">
+      <c r="AR8" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="AS8" s="34" t="s">
+      <c r="AS8" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="AT8" s="34" t="s">
+      <c r="AT8" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="AU8" s="34" t="s">
+      <c r="AU8" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AV8" s="34" t="s">
+      <c r="AV8" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AW8" s="34" t="s">
+      <c r="AW8" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AX8" s="34" t="s">
+      <c r="AX8" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="AY8" s="34" t="s">
+      <c r="AY8" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="AZ8" s="34" t="s">
+      <c r="AZ8" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="BA8" s="34" t="s">
+      <c r="BA8" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="BB8" s="34" t="s">
+      <c r="BB8" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="BC8" s="34" t="s">
+      <c r="BC8" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="BD8" s="34" t="s">
+      <c r="BD8" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="BE8" s="34" t="s">
+      <c r="BE8" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="BF8" s="34" t="s">
+      <c r="BF8" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="BG8" s="34" t="s">
+      <c r="BG8" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="BH8" s="34" t="s">
+      <c r="BH8" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="BI8" s="34" t="s">
+      <c r="BI8" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="BJ8" s="34" t="s">
+      <c r="BJ8" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="BK8" s="34" t="s">
+      <c r="BK8" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BL8" s="34" t="s">
+      <c r="BL8" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="BM8" s="34" t="s">
+      <c r="BM8" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BN8" s="34" t="s">
+      <c r="BN8" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="XEZ8" s="24"/>
+      <c r="XEZ8" s="25"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:16380">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="37"/>
-      <c r="AW11" s="37"/>
-      <c r="AX11" s="37"/>
-      <c r="AY11" s="37"/>
-      <c r="AZ11" s="37"/>
-      <c r="BA11" s="37"/>
-      <c r="BB11" s="37"/>
-      <c r="BC11" s="37"/>
-      <c r="BD11" s="37"/>
-      <c r="BE11" s="37"/>
-      <c r="BF11" s="37"/>
-      <c r="BG11" s="37"/>
-      <c r="BH11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="40"/>
       <c r="BI11" s="9" t="s">
         <v>136</v>
       </c>
@@ -7028,62 +7033,62 @@
       <c r="BP11" s="6"/>
       <c r="BQ11" s="6"/>
       <c r="BR11" s="6"/>
-      <c r="XEV11" s="24"/>
-      <c r="XEW11" s="24"/>
-      <c r="XEX11" s="24"/>
-      <c r="XEY11" s="24"/>
-      <c r="XEZ11" s="24"/>
+      <c r="XEV11" s="25"/>
+      <c r="XEW11" s="25"/>
+      <c r="XEX11" s="25"/>
+      <c r="XEY11" s="25"/>
+      <c r="XEZ11" s="25"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:16380">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="36" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="37"/>
-      <c r="AT12" s="37"/>
-      <c r="AU12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="40"/>
       <c r="AV12" s="5" t="s">
         <v>137</v>
       </c>
@@ -7115,22 +7120,22 @@
       <c r="BP12" s="6"/>
       <c r="BQ12" s="6"/>
       <c r="BR12" s="6"/>
-      <c r="XEV12" s="24"/>
-      <c r="XEW12" s="24"/>
-      <c r="XEX12" s="24"/>
-      <c r="XEY12" s="24"/>
-      <c r="XEZ12" s="24"/>
+      <c r="XEV12" s="25"/>
+      <c r="XEW12" s="25"/>
+      <c r="XEX12" s="25"/>
+      <c r="XEY12" s="25"/>
+      <c r="XEZ12" s="25"/>
     </row>
     <row r="13" ht="65" customHeight="1" spans="1:16380">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="39"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="5" t="s">
         <v>141</v>
       </c>
@@ -7222,7 +7227,7 @@
       </c>
       <c r="BG13" s="14"/>
       <c r="BH13" s="14"/>
-      <c r="BI13" s="40" t="s">
+      <c r="BI13" s="18" t="s">
         <v>159</v>
       </c>
       <c r="BJ13" s="11" t="s">
@@ -7252,15 +7257,15 @@
       <c r="BR13" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="XEV13" s="24"/>
-      <c r="XEW13" s="24"/>
-      <c r="XEX13" s="24"/>
-      <c r="XEY13" s="24"/>
-      <c r="XEZ13" s="24"/>
+      <c r="XEV13" s="25"/>
+      <c r="XEW13" s="25"/>
+      <c r="XEX13" s="25"/>
+      <c r="XEY13" s="25"/>
+      <c r="XEZ13" s="25"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:16380">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
@@ -7396,251 +7401,251 @@
       <c r="AU14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="34"/>
-      <c r="BC14" s="34"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="34"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="34"/>
-      <c r="BR14" s="34"/>
-      <c r="XEV14" s="24"/>
-      <c r="XEW14" s="24"/>
-      <c r="XEX14" s="24"/>
-      <c r="XEY14" s="24"/>
-      <c r="XEZ14" s="24"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="35"/>
+      <c r="BH14" s="35"/>
+      <c r="BI14" s="35"/>
+      <c r="BJ14" s="35"/>
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="35"/>
+      <c r="BO14" s="35"/>
+      <c r="BP14" s="35"/>
+      <c r="BQ14" s="35"/>
+      <c r="BR14" s="35"/>
+      <c r="XEV14" s="25"/>
+      <c r="XEW14" s="25"/>
+      <c r="XEX14" s="25"/>
+      <c r="XEY14" s="25"/>
+      <c r="XEZ14" s="25"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:16380">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="35">
         <v>65</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="35">
         <v>66</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="35">
         <v>67</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="35">
         <v>68</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="35">
         <v>69</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="35">
         <v>70</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="35">
         <v>71</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="35">
         <v>72</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="35">
         <v>73</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="35">
         <v>74</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="35">
         <v>75</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="35">
         <v>76</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="35">
         <v>77</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="35">
         <v>78</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="35">
         <v>79</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="35">
         <v>80</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="35">
         <v>81</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="35">
         <v>82</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="35">
         <v>83</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="35">
         <v>84</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="35">
         <v>85</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15" s="35">
         <v>86</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="35">
         <v>87</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15" s="35">
         <v>88</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15" s="35">
         <v>89</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="35">
         <v>90</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15" s="35">
         <v>91</v>
       </c>
-      <c r="AD15" s="34">
+      <c r="AD15" s="35">
         <v>92</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="35">
         <v>93</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15" s="35">
         <v>94</v>
       </c>
-      <c r="AG15" s="34">
+      <c r="AG15" s="35">
         <v>95</v>
       </c>
-      <c r="AH15" s="34">
+      <c r="AH15" s="35">
         <v>96</v>
       </c>
-      <c r="AI15" s="34">
+      <c r="AI15" s="35">
         <v>97</v>
       </c>
-      <c r="AJ15" s="34">
+      <c r="AJ15" s="35">
         <v>98</v>
       </c>
-      <c r="AK15" s="34">
+      <c r="AK15" s="35">
         <v>99</v>
       </c>
-      <c r="AL15" s="34">
+      <c r="AL15" s="35">
         <v>100</v>
       </c>
-      <c r="AM15" s="34">
+      <c r="AM15" s="35">
         <v>101</v>
       </c>
-      <c r="AN15" s="34">
+      <c r="AN15" s="35">
         <v>102</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="AO15" s="35">
         <v>103</v>
       </c>
-      <c r="AP15" s="34">
+      <c r="AP15" s="35">
         <v>104</v>
       </c>
-      <c r="AQ15" s="34">
+      <c r="AQ15" s="35">
         <v>105</v>
       </c>
-      <c r="AR15" s="34">
+      <c r="AR15" s="35">
         <v>106</v>
       </c>
-      <c r="AS15" s="34">
+      <c r="AS15" s="35">
         <v>107</v>
       </c>
-      <c r="AT15" s="34">
+      <c r="AT15" s="35">
         <v>108</v>
       </c>
-      <c r="AU15" s="34">
+      <c r="AU15" s="35">
         <v>109</v>
       </c>
-      <c r="AV15" s="34">
+      <c r="AV15" s="35">
         <v>110</v>
       </c>
-      <c r="AW15" s="34">
+      <c r="AW15" s="35">
         <v>111</v>
       </c>
-      <c r="AX15" s="34">
+      <c r="AX15" s="35">
         <v>112</v>
       </c>
-      <c r="AY15" s="34">
+      <c r="AY15" s="35">
         <v>113</v>
       </c>
-      <c r="AZ15" s="34">
+      <c r="AZ15" s="35">
         <v>114</v>
       </c>
-      <c r="BA15" s="34">
+      <c r="BA15" s="35">
         <v>115</v>
       </c>
-      <c r="BB15" s="34">
+      <c r="BB15" s="35">
         <v>116</v>
       </c>
-      <c r="BC15" s="34">
+      <c r="BC15" s="35">
         <v>117</v>
       </c>
-      <c r="BD15" s="34">
+      <c r="BD15" s="35">
         <v>118</v>
       </c>
-      <c r="BE15" s="34">
+      <c r="BE15" s="35">
         <v>119</v>
       </c>
-      <c r="BF15" s="34">
+      <c r="BF15" s="35">
         <v>120</v>
       </c>
-      <c r="BG15" s="34">
+      <c r="BG15" s="35">
         <v>121</v>
       </c>
-      <c r="BH15" s="34">
+      <c r="BH15" s="35">
         <v>122</v>
       </c>
-      <c r="BI15" s="34">
+      <c r="BI15" s="35">
         <v>123</v>
       </c>
-      <c r="BJ15" s="34">
+      <c r="BJ15" s="35">
         <v>124</v>
       </c>
-      <c r="BK15" s="34">
+      <c r="BK15" s="35">
         <v>125</v>
       </c>
-      <c r="BL15" s="34">
+      <c r="BL15" s="35">
         <v>126</v>
       </c>
-      <c r="BM15" s="34">
+      <c r="BM15" s="35">
         <v>127</v>
       </c>
-      <c r="BN15" s="34">
+      <c r="BN15" s="35">
         <v>128</v>
       </c>
-      <c r="BO15" s="34">
+      <c r="BO15" s="35">
         <v>129</v>
       </c>
-      <c r="BP15" s="34">
+      <c r="BP15" s="35">
         <v>130</v>
       </c>
-      <c r="BQ15" s="34">
+      <c r="BQ15" s="35">
         <v>131</v>
       </c>
-      <c r="BR15" s="34">
+      <c r="BR15" s="35">
         <v>132</v>
       </c>
-      <c r="XEV15" s="24"/>
-      <c r="XEW15" s="24"/>
-      <c r="XEX15" s="24"/>
-      <c r="XEY15" s="24"/>
-      <c r="XEZ15" s="24"/>
+      <c r="XEV15" s="25"/>
+      <c r="XEW15" s="25"/>
+      <c r="XEX15" s="25"/>
+      <c r="XEY15" s="25"/>
+      <c r="XEZ15" s="25"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:16380">
       <c r="A16" s="6" t="s">
@@ -7649,215 +7654,215 @@
       <c r="B16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O16" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="P16" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="R16" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="V16" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="X16" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="Y16" s="35" t="s">
+      <c r="Y16" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="AA16" s="35" t="s">
+      <c r="AA16" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="AB16" s="35" t="s">
+      <c r="AB16" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AC16" s="35" t="s">
+      <c r="AC16" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AD16" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" s="35" t="s">
+      <c r="AE16" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="AF16" s="35" t="s">
+      <c r="AF16" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="AG16" s="35" t="s">
+      <c r="AG16" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="AH16" s="35" t="s">
+      <c r="AH16" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="AI16" s="35" t="s">
+      <c r="AI16" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="AJ16" s="35" t="s">
+      <c r="AJ16" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="AK16" s="35" t="s">
+      <c r="AK16" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="AL16" s="35" t="s">
+      <c r="AL16" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="AM16" s="35" t="s">
+      <c r="AM16" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="AN16" s="35" t="s">
+      <c r="AN16" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="AO16" s="35" t="s">
+      <c r="AO16" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="AP16" s="35" t="s">
+      <c r="AP16" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="AQ16" s="35" t="s">
+      <c r="AQ16" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="AR16" s="35" t="s">
+      <c r="AR16" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="AS16" s="35" t="s">
+      <c r="AS16" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="AT16" s="35" t="s">
+      <c r="AT16" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="AU16" s="35" t="s">
+      <c r="AU16" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="AV16" s="35" t="s">
+      <c r="AV16" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="AW16" s="35" t="s">
+      <c r="AW16" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="AX16" s="35" t="s">
+      <c r="AX16" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="AY16" s="35" t="s">
+      <c r="AY16" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="AZ16" s="35" t="s">
+      <c r="AZ16" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="BA16" s="35" t="s">
+      <c r="BA16" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="BB16" s="35" t="s">
+      <c r="BB16" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="BC16" s="35" t="s">
+      <c r="BC16" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="BD16" s="35" t="s">
+      <c r="BD16" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="BE16" s="35" t="s">
+      <c r="BE16" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="BF16" s="35" t="s">
+      <c r="BF16" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="BG16" s="35" t="s">
+      <c r="BG16" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="BH16" s="35" t="s">
+      <c r="BH16" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="BI16" s="35" t="s">
+      <c r="BI16" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="BJ16" s="35" t="s">
+      <c r="BJ16" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="BK16" s="35" t="s">
+      <c r="BK16" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="BL16" s="35" t="s">
+      <c r="BL16" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="BM16" s="35" t="s">
+      <c r="BM16" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="BN16" s="35" t="s">
+      <c r="BN16" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="BO16" s="35" t="s">
+      <c r="BO16" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="BP16" s="35" t="s">
+      <c r="BP16" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="BQ16" s="35" t="s">
+      <c r="BQ16" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="BR16" s="35" t="s">
+      <c r="BR16" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="XEV16" s="24"/>
-      <c r="XEW16" s="24"/>
-      <c r="XEX16" s="24"/>
-      <c r="XEY16" s="24"/>
-      <c r="XEZ16" s="24"/>
+      <c r="XEV16" s="25"/>
+      <c r="XEW16" s="25"/>
+      <c r="XEX16" s="25"/>
+      <c r="XEY16" s="25"/>
+      <c r="XEZ16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -7960,18 +7965,18 @@
       <selection activeCell="CB6" sqref="CB6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.0916666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.0925925925926" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="4" style="23" customWidth="1"/>
-    <col min="2" max="2" width="2.63333333333333" style="23" customWidth="1"/>
-    <col min="3" max="6" width="2.63333333333333" style="24" customWidth="1"/>
-    <col min="7" max="8" width="2.63333333333333" style="25" customWidth="1"/>
-    <col min="9" max="125" width="2.63333333333333" style="26" customWidth="1"/>
-    <col min="126" max="16380" width="18.0916666666667" style="26" customWidth="1"/>
-    <col min="16381" max="16384" width="18.0916666666667" style="24" customWidth="1"/>
+    <col min="1" max="1" width="4" style="24" customWidth="1"/>
+    <col min="2" max="2" width="2.62962962962963" style="24" customWidth="1"/>
+    <col min="3" max="6" width="2.62962962962963" style="25" customWidth="1"/>
+    <col min="7" max="8" width="2.62962962962963" style="26" customWidth="1"/>
+    <col min="9" max="125" width="2.62962962962963" style="27" customWidth="1"/>
+    <col min="126" max="16380" width="18.0925925925926" style="27" customWidth="1"/>
+    <col min="16381" max="16384" width="18.0925925925926" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:77">
+    <row r="1" ht="17.4" spans="1:77">
       <c r="A1" s="1" t="s">
         <v>240</v>
       </c>
@@ -8053,19 +8058,19 @@
       <c r="BY1" s="2"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:16380">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="29"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
@@ -8073,102 +8078,102 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="36" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="37"/>
-      <c r="AM3" s="37"/>
-      <c r="AN3" s="37"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="37"/>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="37"/>
-      <c r="AT3" s="37"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="37"/>
-      <c r="AW3" s="37"/>
-      <c r="AX3" s="37"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="37"/>
-      <c r="BA3" s="37"/>
-      <c r="BB3" s="37"/>
-      <c r="BC3" s="37"/>
-      <c r="BD3" s="37"/>
-      <c r="BE3" s="37"/>
-      <c r="BF3" s="37"/>
-      <c r="BG3" s="37"/>
-      <c r="BH3" s="37"/>
-      <c r="BI3" s="37"/>
-      <c r="BJ3" s="37"/>
-      <c r="BK3" s="37"/>
-      <c r="BL3" s="37"/>
-      <c r="BM3" s="37"/>
-      <c r="BN3" s="37"/>
-      <c r="BO3" s="37"/>
-      <c r="BP3" s="37"/>
-      <c r="BQ3" s="37"/>
-      <c r="BR3" s="37"/>
-      <c r="BS3" s="39"/>
-      <c r="XEZ3" s="24"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="38"/>
+      <c r="AR3" s="38"/>
+      <c r="AS3" s="38"/>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="38"/>
+      <c r="AW3" s="38"/>
+      <c r="AX3" s="38"/>
+      <c r="AY3" s="38"/>
+      <c r="AZ3" s="38"/>
+      <c r="BA3" s="38"/>
+      <c r="BB3" s="38"/>
+      <c r="BC3" s="38"/>
+      <c r="BD3" s="38"/>
+      <c r="BE3" s="38"/>
+      <c r="BF3" s="38"/>
+      <c r="BG3" s="38"/>
+      <c r="BH3" s="38"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="38"/>
+      <c r="BK3" s="38"/>
+      <c r="BL3" s="38"/>
+      <c r="BM3" s="38"/>
+      <c r="BN3" s="38"/>
+      <c r="BO3" s="38"/>
+      <c r="BP3" s="38"/>
+      <c r="BQ3" s="38"/>
+      <c r="BR3" s="38"/>
+      <c r="BS3" s="40"/>
+      <c r="XEZ3" s="25"/>
     </row>
     <row r="4" ht="14" customHeight="1" spans="1:16380">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="36" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="39"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="40"/>
       <c r="AA4" s="5" t="s">
         <v>31</v>
       </c>
@@ -8216,16 +8221,16 @@
       <c r="BQ4" s="5"/>
       <c r="BR4" s="5"/>
       <c r="BS4" s="5"/>
-      <c r="XEZ4" s="24"/>
+      <c r="XEZ4" s="25"/>
     </row>
     <row r="5" ht="65" customHeight="1" spans="1:16380">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -8243,19 +8248,19 @@
       <c r="J5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="29" t="s">
         <v>43</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -8291,48 +8296,48 @@
       <c r="Z5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AA5" s="36" t="s">
+      <c r="AA5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="36" t="s">
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="36" t="s">
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="36" t="s">
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="36" t="s">
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="40"/>
+      <c r="AU5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="36" t="s">
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="40"/>
+      <c r="AZ5" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="39"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="40"/>
       <c r="BE5" s="5" t="s">
         <v>61</v>
       </c>
@@ -8340,49 +8345,49 @@
       <c r="BG5" s="5"/>
       <c r="BH5" s="5"/>
       <c r="BI5" s="5"/>
-      <c r="BJ5" s="36" t="s">
+      <c r="BJ5" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="BK5" s="37"/>
-      <c r="BL5" s="37"/>
-      <c r="BM5" s="37"/>
-      <c r="BN5" s="39"/>
-      <c r="BO5" s="36" t="s">
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="38"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="40"/>
+      <c r="BO5" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="BP5" s="37"/>
-      <c r="BQ5" s="37"/>
-      <c r="BR5" s="37"/>
-      <c r="BS5" s="39"/>
-      <c r="XEZ5" s="24"/>
+      <c r="BP5" s="38"/>
+      <c r="BQ5" s="38"/>
+      <c r="BR5" s="38"/>
+      <c r="BS5" s="40"/>
+      <c r="XEZ5" s="25"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:16380">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
       <c r="AA6" s="5" t="s">
         <v>63</v>
       </c>
@@ -8518,223 +8523,223 @@
       <c r="BS6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="XEZ6" s="24"/>
+      <c r="XEZ6" s="25"/>
     </row>
     <row r="7" ht="14" customHeight="1" spans="1:16380">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="34">
         <v>1</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="34">
         <v>2</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="34">
         <v>3</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="34">
         <v>4</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="34">
         <v>5</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="34">
         <v>6</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="34">
         <v>7</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="34">
         <v>8</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="34">
         <v>9</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="34">
         <v>10</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="34">
         <v>11</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="34">
         <v>12</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="34">
         <v>13</v>
       </c>
-      <c r="P7" s="34">
+      <c r="P7" s="35">
         <v>14</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="35">
         <v>15</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="35">
         <v>16</v>
       </c>
-      <c r="S7" s="34">
+      <c r="S7" s="35">
         <v>17</v>
       </c>
-      <c r="T7" s="34">
+      <c r="T7" s="35">
         <v>18</v>
       </c>
-      <c r="U7" s="34">
+      <c r="U7" s="35">
         <v>19</v>
       </c>
-      <c r="V7" s="34">
+      <c r="V7" s="35">
         <v>20</v>
       </c>
-      <c r="W7" s="34">
+      <c r="W7" s="35">
         <v>21</v>
       </c>
-      <c r="X7" s="34">
+      <c r="X7" s="35">
         <v>22</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Y7" s="35">
         <v>23</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="Z7" s="35">
         <v>24</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7" s="35">
         <v>25</v>
       </c>
-      <c r="AB7" s="34">
+      <c r="AB7" s="35">
         <v>26</v>
       </c>
-      <c r="AC7" s="34">
+      <c r="AC7" s="35">
         <v>27</v>
       </c>
-      <c r="AD7" s="34">
+      <c r="AD7" s="35">
         <v>28</v>
       </c>
-      <c r="AE7" s="34">
+      <c r="AE7" s="35">
         <v>29</v>
       </c>
-      <c r="AF7" s="34">
+      <c r="AF7" s="35">
         <v>30</v>
       </c>
-      <c r="AG7" s="34">
+      <c r="AG7" s="35">
         <v>31</v>
       </c>
-      <c r="AH7" s="34">
+      <c r="AH7" s="35">
         <v>32</v>
       </c>
-      <c r="AI7" s="34">
+      <c r="AI7" s="35">
         <v>33</v>
       </c>
-      <c r="AJ7" s="34">
+      <c r="AJ7" s="35">
         <v>34</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="35">
         <v>35</v>
       </c>
-      <c r="AL7" s="34">
+      <c r="AL7" s="35">
         <v>36</v>
       </c>
-      <c r="AM7" s="34">
+      <c r="AM7" s="35">
         <v>37</v>
       </c>
-      <c r="AN7" s="34">
+      <c r="AN7" s="35">
         <v>38</v>
       </c>
-      <c r="AO7" s="34">
+      <c r="AO7" s="35">
         <v>39</v>
       </c>
-      <c r="AP7" s="34">
+      <c r="AP7" s="35">
         <v>40</v>
       </c>
-      <c r="AQ7" s="34">
+      <c r="AQ7" s="35">
         <v>41</v>
       </c>
-      <c r="AR7" s="34">
+      <c r="AR7" s="35">
         <v>42</v>
       </c>
-      <c r="AS7" s="34">
+      <c r="AS7" s="35">
         <v>43</v>
       </c>
-      <c r="AT7" s="34">
+      <c r="AT7" s="35">
         <v>44</v>
       </c>
-      <c r="AU7" s="34">
+      <c r="AU7" s="35">
         <v>45</v>
       </c>
-      <c r="AV7" s="34">
+      <c r="AV7" s="35">
         <v>46</v>
       </c>
-      <c r="AW7" s="34">
+      <c r="AW7" s="35">
         <v>47</v>
       </c>
-      <c r="AX7" s="34">
+      <c r="AX7" s="35">
         <v>48</v>
       </c>
-      <c r="AY7" s="34">
+      <c r="AY7" s="35">
         <v>49</v>
       </c>
-      <c r="AZ7" s="34">
+      <c r="AZ7" s="35">
         <v>50</v>
       </c>
-      <c r="BA7" s="34">
+      <c r="BA7" s="35">
         <v>51</v>
       </c>
-      <c r="BB7" s="34">
+      <c r="BB7" s="35">
         <v>52</v>
       </c>
-      <c r="BC7" s="34">
+      <c r="BC7" s="35">
         <v>53</v>
       </c>
-      <c r="BD7" s="34">
+      <c r="BD7" s="35">
         <v>54</v>
       </c>
-      <c r="BE7" s="34">
+      <c r="BE7" s="35">
         <v>55</v>
       </c>
-      <c r="BF7" s="34">
+      <c r="BF7" s="35">
         <v>56</v>
       </c>
-      <c r="BG7" s="34">
+      <c r="BG7" s="35">
         <v>57</v>
       </c>
-      <c r="BH7" s="34">
+      <c r="BH7" s="35">
         <v>58</v>
       </c>
-      <c r="BI7" s="34">
+      <c r="BI7" s="35">
         <v>59</v>
       </c>
-      <c r="BJ7" s="34">
+      <c r="BJ7" s="35">
         <v>60</v>
       </c>
-      <c r="BK7" s="34">
+      <c r="BK7" s="35">
         <v>61</v>
       </c>
-      <c r="BL7" s="34">
+      <c r="BL7" s="35">
         <v>62</v>
       </c>
-      <c r="BM7" s="34">
+      <c r="BM7" s="35">
         <v>63</v>
       </c>
-      <c r="BN7" s="34">
+      <c r="BN7" s="35">
         <v>64</v>
       </c>
-      <c r="BO7" s="34">
+      <c r="BO7" s="35">
         <v>65</v>
       </c>
-      <c r="BP7" s="34">
+      <c r="BP7" s="35">
         <v>66</v>
       </c>
-      <c r="BQ7" s="34">
+      <c r="BQ7" s="35">
         <v>67</v>
       </c>
-      <c r="BR7" s="34">
+      <c r="BR7" s="35">
         <v>68</v>
       </c>
-      <c r="BS7" s="34">
+      <c r="BS7" s="35">
         <v>69</v>
       </c>
-      <c r="XEZ7" s="24"/>
+      <c r="XEZ7" s="25"/>
     </row>
     <row r="8" ht="14" customHeight="1" spans="1:16380">
       <c r="A8" s="6" t="s">
@@ -8743,277 +8748,277 @@
       <c r="B8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="35" t="s">
+      <c r="J8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="35" t="s">
+      <c r="N8" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="V8" s="38" t="s">
+      <c r="V8" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W8" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="X8" s="38" t="s">
+      <c r="X8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" s="38" t="s">
+      <c r="Y8" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="Z8" s="38" t="s">
+      <c r="Z8" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="AA8" s="35" t="s">
+      <c r="AA8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="AB8" s="35" t="s">
+      <c r="AB8" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="AC8" s="35" t="s">
+      <c r="AC8" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="AD8" s="35" t="s">
+      <c r="AD8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" s="35" t="s">
+      <c r="AE8" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="AF8" s="35" t="s">
+      <c r="AF8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="AG8" s="35" t="s">
+      <c r="AG8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="AH8" s="34" t="s">
+      <c r="AH8" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="AI8" s="34" t="s">
+      <c r="AI8" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="AJ8" s="34" t="s">
+      <c r="AJ8" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="AK8" s="34" t="s">
+      <c r="AK8" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="AL8" s="34" t="s">
+      <c r="AL8" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="AM8" s="34" t="s">
+      <c r="AM8" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AN8" s="34" t="s">
+      <c r="AN8" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="AO8" s="34" t="s">
+      <c r="AO8" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="AP8" s="34" t="s">
+      <c r="AP8" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AQ8" s="34" t="s">
+      <c r="AQ8" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="AR8" s="34" t="s">
+      <c r="AR8" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="AS8" s="34" t="s">
+      <c r="AS8" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="AT8" s="34" t="s">
+      <c r="AT8" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="AU8" s="34" t="s">
+      <c r="AU8" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="AV8" s="34" t="s">
+      <c r="AV8" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="AW8" s="34" t="s">
+      <c r="AW8" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="AX8" s="34" t="s">
+      <c r="AX8" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="AY8" s="34" t="s">
+      <c r="AY8" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="AZ8" s="34" t="s">
+      <c r="AZ8" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="BA8" s="34" t="s">
+      <c r="BA8" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="BB8" s="34" t="s">
+      <c r="BB8" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="BC8" s="34" t="s">
+      <c r="BC8" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="BD8" s="34" t="s">
+      <c r="BD8" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="BE8" s="34" t="s">
+      <c r="BE8" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="BF8" s="34" t="s">
+      <c r="BF8" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="BG8" s="34" t="s">
+      <c r="BG8" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="BH8" s="34" t="s">
+      <c r="BH8" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="BI8" s="34" t="s">
+      <c r="BI8" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="BJ8" s="34" t="s">
+      <c r="BJ8" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="BK8" s="34" t="s">
+      <c r="BK8" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BL8" s="34" t="s">
+      <c r="BL8" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="BM8" s="34" t="s">
+      <c r="BM8" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="BN8" s="34" t="s">
+      <c r="BN8" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="BO8" s="34" t="s">
+      <c r="BO8" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="BP8" s="34" t="s">
+      <c r="BP8" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="BQ8" s="34" t="s">
+      <c r="BQ8" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="BR8" s="34" t="s">
+      <c r="BR8" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="BS8" s="34" t="s">
+      <c r="BS8" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="XEZ8" s="24"/>
+      <c r="XEZ8" s="25"/>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:16380">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
-      <c r="AS11" s="37"/>
-      <c r="AT11" s="37"/>
-      <c r="AU11" s="37"/>
-      <c r="AV11" s="37"/>
-      <c r="AW11" s="37"/>
-      <c r="AX11" s="37"/>
-      <c r="AY11" s="37"/>
-      <c r="AZ11" s="37"/>
-      <c r="BA11" s="37"/>
-      <c r="BB11" s="37"/>
-      <c r="BC11" s="39"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="40"/>
       <c r="BD11" s="9" t="s">
         <v>136</v>
       </c>
@@ -9040,62 +9045,62 @@
       <c r="BW11" s="6"/>
       <c r="BX11" s="6"/>
       <c r="BY11" s="6"/>
-      <c r="XEQ11" s="24"/>
-      <c r="XER11" s="24"/>
-      <c r="XES11" s="24"/>
-      <c r="XET11" s="24"/>
-      <c r="XEU11" s="24"/>
-      <c r="XEV11" s="24"/>
-      <c r="XEW11" s="24"/>
-      <c r="XEX11" s="24"/>
-      <c r="XEY11" s="24"/>
-      <c r="XEZ11" s="24"/>
+      <c r="XEQ11" s="25"/>
+      <c r="XER11" s="25"/>
+      <c r="XES11" s="25"/>
+      <c r="XET11" s="25"/>
+      <c r="XEU11" s="25"/>
+      <c r="XEV11" s="25"/>
+      <c r="XEW11" s="25"/>
+      <c r="XEX11" s="25"/>
+      <c r="XEY11" s="25"/>
+      <c r="XEZ11" s="25"/>
     </row>
     <row r="12" ht="14" customHeight="1" spans="1:16380">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="36" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="39"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="40"/>
       <c r="AQ12" s="5" t="s">
         <v>137</v>
       </c>
@@ -9139,20 +9144,20 @@
       <c r="BW12" s="6"/>
       <c r="BX12" s="6"/>
       <c r="BY12" s="6"/>
-      <c r="XEQ12" s="24"/>
-      <c r="XER12" s="24"/>
-      <c r="XES12" s="24"/>
-      <c r="XET12" s="24"/>
-      <c r="XEU12" s="24"/>
-      <c r="XEV12" s="24"/>
-      <c r="XEW12" s="24"/>
-      <c r="XEX12" s="24"/>
-      <c r="XEY12" s="24"/>
-      <c r="XEZ12" s="24"/>
+      <c r="XEQ12" s="25"/>
+      <c r="XER12" s="25"/>
+      <c r="XES12" s="25"/>
+      <c r="XET12" s="25"/>
+      <c r="XEU12" s="25"/>
+      <c r="XEV12" s="25"/>
+      <c r="XEW12" s="25"/>
+      <c r="XEX12" s="25"/>
+      <c r="XEY12" s="25"/>
+      <c r="XEZ12" s="25"/>
     </row>
     <row r="13" ht="65" customHeight="1" spans="1:16380">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="5" t="s">
         <v>141</v>
       </c>
@@ -9244,7 +9249,7 @@
       </c>
       <c r="BB13" s="14"/>
       <c r="BC13" s="14"/>
-      <c r="BD13" s="40" t="s">
+      <c r="BD13" s="18" t="s">
         <v>159</v>
       </c>
       <c r="BE13" s="11" t="s">
@@ -9310,20 +9315,20 @@
       <c r="BY13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="XEQ13" s="24"/>
-      <c r="XER13" s="24"/>
-      <c r="XES13" s="24"/>
-      <c r="XET13" s="24"/>
-      <c r="XEU13" s="24"/>
-      <c r="XEV13" s="24"/>
-      <c r="XEW13" s="24"/>
-      <c r="XEX13" s="24"/>
-      <c r="XEY13" s="24"/>
-      <c r="XEZ13" s="24"/>
+      <c r="XEQ13" s="25"/>
+      <c r="XER13" s="25"/>
+      <c r="XES13" s="25"/>
+      <c r="XET13" s="25"/>
+      <c r="XEU13" s="25"/>
+      <c r="XEV13" s="25"/>
+      <c r="XEW13" s="25"/>
+      <c r="XEX13" s="25"/>
+      <c r="XEY13" s="25"/>
+      <c r="XEZ13" s="25"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:16380">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="5" t="s">
         <v>63</v>
       </c>
@@ -9444,294 +9449,294 @@
       <c r="AP14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="34"/>
-      <c r="AS14" s="34"/>
-      <c r="AT14" s="34"/>
-      <c r="AU14" s="34"/>
-      <c r="AV14" s="34"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="34"/>
-      <c r="AZ14" s="34"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="34"/>
-      <c r="BC14" s="34"/>
-      <c r="BD14" s="34"/>
-      <c r="BE14" s="34"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="34"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="34"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="34"/>
-      <c r="BN14" s="34"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="34"/>
-      <c r="BQ14" s="34"/>
-      <c r="BR14" s="34"/>
-      <c r="BS14" s="34"/>
-      <c r="BT14" s="34"/>
-      <c r="BU14" s="34"/>
-      <c r="BV14" s="34"/>
-      <c r="BW14" s="34"/>
-      <c r="BX14" s="34"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="35"/>
+      <c r="BH14" s="35"/>
+      <c r="BI14" s="35"/>
+      <c r="BJ14" s="35"/>
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="35"/>
+      <c r="BO14" s="35"/>
+      <c r="BP14" s="35"/>
+      <c r="BQ14" s="35"/>
+      <c r="BR14" s="35"/>
+      <c r="BS14" s="35"/>
+      <c r="BT14" s="35"/>
+      <c r="BU14" s="35"/>
+      <c r="BV14" s="35"/>
+      <c r="BW14" s="35"/>
+      <c r="BX14" s="35"/>
       <c r="BY14" s="5"/>
-      <c r="XEQ14" s="24"/>
-      <c r="XER14" s="24"/>
-      <c r="XES14" s="24"/>
-      <c r="XET14" s="24"/>
-      <c r="XEU14" s="24"/>
-      <c r="XEV14" s="24"/>
-      <c r="XEW14" s="24"/>
-      <c r="XEX14" s="24"/>
-      <c r="XEY14" s="24"/>
-      <c r="XEZ14" s="24"/>
+      <c r="XEQ14" s="25"/>
+      <c r="XER14" s="25"/>
+      <c r="XES14" s="25"/>
+      <c r="XET14" s="25"/>
+      <c r="XEU14" s="25"/>
+      <c r="XEV14" s="25"/>
+      <c r="XEW14" s="25"/>
+      <c r="XEX14" s="25"/>
+      <c r="XEY14" s="25"/>
+      <c r="XEZ14" s="25"/>
     </row>
     <row r="15" ht="14" customHeight="1" spans="1:16380">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="35">
         <v>70</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="35">
         <v>71</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="35">
         <v>72</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="35">
         <v>73</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="35">
         <v>74</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="35">
         <v>75</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="35">
         <v>76</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="35">
         <v>77</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="35">
         <v>78</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="35">
         <v>79</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="35">
         <v>80</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="35">
         <v>81</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="35">
         <v>82</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="35">
         <v>83</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="35">
         <v>84</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="35">
         <v>85</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="35">
         <v>86</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="35">
         <v>87</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="35">
         <v>88</v>
       </c>
-      <c r="V15" s="34">
+      <c r="V15" s="35">
         <v>89</v>
       </c>
-      <c r="W15" s="34">
+      <c r="W15" s="35">
         <v>90</v>
       </c>
-      <c r="X15" s="34">
+      <c r="X15" s="35">
         <v>91</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="35">
         <v>92</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15" s="35">
         <v>93</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15" s="35">
         <v>94</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="35">
         <v>95</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15" s="35">
         <v>96</v>
       </c>
-      <c r="AD15" s="34">
+      <c r="AD15" s="35">
         <v>97</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="35">
         <v>98</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15" s="35">
         <v>99</v>
       </c>
-      <c r="AG15" s="34">
+      <c r="AG15" s="35">
         <v>100</v>
       </c>
-      <c r="AH15" s="34">
+      <c r="AH15" s="35">
         <v>101</v>
       </c>
-      <c r="AI15" s="34">
+      <c r="AI15" s="35">
         <v>102</v>
       </c>
-      <c r="AJ15" s="34">
+      <c r="AJ15" s="35">
         <v>103</v>
       </c>
-      <c r="AK15" s="34">
+      <c r="AK15" s="35">
         <v>104</v>
       </c>
-      <c r="AL15" s="34">
+      <c r="AL15" s="35">
         <v>105</v>
       </c>
-      <c r="AM15" s="34">
+      <c r="AM15" s="35">
         <v>106</v>
       </c>
-      <c r="AN15" s="34">
+      <c r="AN15" s="35">
         <v>107</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="AO15" s="35">
         <v>108</v>
       </c>
-      <c r="AP15" s="34">
+      <c r="AP15" s="35">
         <v>109</v>
       </c>
-      <c r="AQ15" s="34">
+      <c r="AQ15" s="35">
         <v>110</v>
       </c>
-      <c r="AR15" s="34">
+      <c r="AR15" s="35">
         <v>111</v>
       </c>
-      <c r="AS15" s="34">
+      <c r="AS15" s="35">
         <v>112</v>
       </c>
-      <c r="AT15" s="34">
+      <c r="AT15" s="35">
         <v>113</v>
       </c>
-      <c r="AU15" s="34">
+      <c r="AU15" s="35">
         <v>114</v>
       </c>
-      <c r="AV15" s="34">
+      <c r="AV15" s="35">
         <v>115</v>
       </c>
-      <c r="AW15" s="34">
+      <c r="AW15" s="35">
         <v>116</v>
       </c>
-      <c r="AX15" s="34">
+      <c r="AX15" s="35">
         <v>117</v>
       </c>
-      <c r="AY15" s="34">
+      <c r="AY15" s="35">
         <v>118</v>
       </c>
-      <c r="AZ15" s="34">
+      <c r="AZ15" s="35">
         <v>119</v>
       </c>
-      <c r="BA15" s="34">
+      <c r="BA15" s="35">
         <v>120</v>
       </c>
-      <c r="BB15" s="34">
+      <c r="BB15" s="35">
         <v>121</v>
       </c>
-      <c r="BC15" s="34">
+      <c r="BC15" s="35">
         <v>122</v>
       </c>
-      <c r="BD15" s="34">
+      <c r="BD15" s="35">
         <v>123</v>
       </c>
-      <c r="BE15" s="34">
+      <c r="BE15" s="35">
         <v>124</v>
       </c>
-      <c r="BF15" s="34">
+      <c r="BF15" s="35">
         <v>125</v>
       </c>
-      <c r="BG15" s="34">
+      <c r="BG15" s="35">
         <v>126</v>
       </c>
-      <c r="BH15" s="34">
+      <c r="BH15" s="35">
         <v>127</v>
       </c>
-      <c r="BI15" s="34">
+      <c r="BI15" s="35">
         <v>128</v>
       </c>
-      <c r="BJ15" s="34">
+      <c r="BJ15" s="35">
         <v>129</v>
       </c>
-      <c r="BK15" s="34">
+      <c r="BK15" s="35">
         <v>130</v>
       </c>
-      <c r="BL15" s="34">
+      <c r="BL15" s="35">
         <v>131</v>
       </c>
-      <c r="BM15" s="34">
+      <c r="BM15" s="35">
         <v>132</v>
       </c>
-      <c r="BN15" s="34">
+      <c r="BN15" s="35">
         <v>133</v>
       </c>
-      <c r="BO15" s="34">
+      <c r="BO15" s="35">
         <v>134</v>
       </c>
-      <c r="BP15" s="34">
+      <c r="BP15" s="35">
         <v>135</v>
       </c>
-      <c r="BQ15" s="34">
+      <c r="BQ15" s="35">
         <v>136</v>
       </c>
-      <c r="BR15" s="34">
+      <c r="BR15" s="35">
         <v>137</v>
       </c>
-      <c r="BS15" s="34">
+      <c r="BS15" s="35">
         <v>138</v>
       </c>
-      <c r="BT15" s="34">
+      <c r="BT15" s="35">
         <v>139</v>
       </c>
-      <c r="BU15" s="34">
+      <c r="BU15" s="35">
         <v>140</v>
       </c>
-      <c r="BV15" s="34">
+      <c r="BV15" s="35">
         <v>141</v>
       </c>
-      <c r="BW15" s="34">
+      <c r="BW15" s="35">
         <v>142</v>
       </c>
-      <c r="BX15" s="34">
+      <c r="BX15" s="35">
         <v>143</v>
       </c>
-      <c r="BY15" s="34">
+      <c r="BY15" s="35">
         <v>144</v>
       </c>
-      <c r="XEQ15" s="24"/>
-      <c r="XER15" s="24"/>
-      <c r="XES15" s="24"/>
-      <c r="XET15" s="24"/>
-      <c r="XEU15" s="24"/>
-      <c r="XEV15" s="24"/>
-      <c r="XEW15" s="24"/>
-      <c r="XEX15" s="24"/>
-      <c r="XEY15" s="24"/>
-      <c r="XEZ15" s="24"/>
+      <c r="XEQ15" s="25"/>
+      <c r="XER15" s="25"/>
+      <c r="XES15" s="25"/>
+      <c r="XET15" s="25"/>
+      <c r="XEU15" s="25"/>
+      <c r="XEV15" s="25"/>
+      <c r="XEW15" s="25"/>
+      <c r="XEX15" s="25"/>
+      <c r="XEY15" s="25"/>
+      <c r="XEZ15" s="25"/>
     </row>
     <row r="16" ht="14" customHeight="1" spans="1:16380">
       <c r="A16" s="6" t="s">
@@ -9740,196 +9745,196 @@
       <c r="B16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="M16" s="35" t="s">
+      <c r="M16" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="O16" s="35" t="s">
+      <c r="O16" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="P16" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q16" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="R16" s="35" t="s">
+      <c r="R16" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="S16" s="35" t="s">
+      <c r="S16" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="V16" s="35" t="s">
+      <c r="V16" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="W16" s="35" t="s">
+      <c r="W16" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="X16" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="Y16" s="35" t="s">
+      <c r="Y16" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="Z16" s="35" t="s">
+      <c r="Z16" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="AA16" s="35" t="s">
+      <c r="AA16" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="AB16" s="35" t="s">
+      <c r="AB16" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="AC16" s="35" t="s">
+      <c r="AC16" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="AD16" s="35" t="s">
+      <c r="AD16" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="AE16" s="35" t="s">
+      <c r="AE16" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="AF16" s="35" t="s">
+      <c r="AF16" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="AG16" s="35" t="s">
+      <c r="AG16" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="AH16" s="35" t="s">
+      <c r="AH16" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="AI16" s="35" t="s">
+      <c r="AI16" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="AJ16" s="35" t="s">
+      <c r="AJ16" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="AK16" s="35" t="s">
+      <c r="AK16" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="AL16" s="35" t="s">
+      <c r="AL16" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="AM16" s="35" t="s">
+      <c r="AM16" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="AN16" s="35" t="s">
+      <c r="AN16" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="AO16" s="35" t="s">
+      <c r="AO16" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="AP16" s="35" t="s">
+      <c r="AP16" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="AQ16" s="35" t="s">
+      <c r="AQ16" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="AR16" s="35" t="s">
+      <c r="AR16" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="AS16" s="35" t="s">
+      <c r="AS16" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="AT16" s="35" t="s">
+      <c r="AT16" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="AU16" s="35" t="s">
+      <c r="AU16" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="AV16" s="35" t="s">
+      <c r="AV16" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="AW16" s="35" t="s">
+      <c r="AW16" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="AX16" s="35" t="s">
+      <c r="AX16" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="AY16" s="35" t="s">
+      <c r="AY16" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="AZ16" s="35" t="s">
+      <c r="AZ16" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="BA16" s="35" t="s">
+      <c r="BA16" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="BB16" s="35" t="s">
+      <c r="BB16" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="BC16" s="35" t="s">
+      <c r="BC16" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="BD16" s="35" t="s">
+      <c r="BD16" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="BE16" s="35" t="s">
+      <c r="BE16" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="BF16" s="35" t="s">
+      <c r="BF16" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="BG16" s="35" t="s">
+      <c r="BG16" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="BH16" s="35" t="s">
+      <c r="BH16" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="BI16" s="35" t="s">
+      <c r="BI16" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="BJ16" s="35" t="s">
+      <c r="BJ16" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="BK16" s="35" t="s">
+      <c r="BK16" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="BL16" s="35" t="s">
+      <c r="BL16" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="BM16" s="35" t="s">
+      <c r="BM16" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="BN16" s="18" t="s">
+      <c r="BN16" s="19" t="s">
         <v>255</v>
       </c>
       <c r="BO16" s="8" t="s">
@@ -9965,16 +9970,16 @@
       <c r="BY16" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="XEQ16" s="24"/>
-      <c r="XER16" s="24"/>
-      <c r="XES16" s="24"/>
-      <c r="XET16" s="24"/>
-      <c r="XEU16" s="24"/>
-      <c r="XEV16" s="24"/>
-      <c r="XEW16" s="24"/>
-      <c r="XEX16" s="24"/>
-      <c r="XEY16" s="24"/>
-      <c r="XEZ16" s="24"/>
+      <c r="XEQ16" s="25"/>
+      <c r="XER16" s="25"/>
+      <c r="XES16" s="25"/>
+      <c r="XET16" s="25"/>
+      <c r="XEU16" s="25"/>
+      <c r="XEV16" s="25"/>
+      <c r="XEW16" s="25"/>
+      <c r="XEX16" s="25"/>
+      <c r="XEY16" s="25"/>
+      <c r="XEZ16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="93">
@@ -10086,39 +10091,39 @@
   <sheetPr/>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.81666666666667" defaultRowHeight="10.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="1.81481481481481" defaultRowHeight="9.6" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="2.18333333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.09166666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.5416666666667" style="10" customWidth="1"/>
-    <col min="4" max="4" width="4.09166666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.18518518518518" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.09259259259259" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.537037037037" style="10" customWidth="1"/>
+    <col min="4" max="4" width="4.09259259259259" style="4" customWidth="1"/>
     <col min="5" max="5" width="4" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.1833333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.54166666666667" style="4" customWidth="1"/>
-    <col min="8" max="8" width="4.725" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.45" style="4" customWidth="1"/>
-    <col min="10" max="21" width="3.63333333333333" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.1851851851852" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.5462962962963" style="4" customWidth="1"/>
+    <col min="8" max="8" width="4.72222222222222" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.4537037037037" style="4" customWidth="1"/>
+    <col min="10" max="21" width="3.62962962962963" style="4" customWidth="1"/>
     <col min="22" max="22" width="6.25" style="4" customWidth="1"/>
-    <col min="23" max="26" width="2.63333333333333" style="4" customWidth="1"/>
-    <col min="27" max="27" width="3.63333333333333" style="4" customWidth="1"/>
-    <col min="28" max="28" width="2.18333333333333" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.2666666666667" style="4" customWidth="1"/>
-    <col min="30" max="30" width="4.725" style="4" customWidth="1"/>
-    <col min="31" max="31" width="10.9083333333333" style="4" customWidth="1"/>
-    <col min="32" max="32" width="11.3666666666667" style="4" customWidth="1"/>
-    <col min="33" max="33" width="3.63333333333333" style="4" customWidth="1"/>
-    <col min="34" max="34" width="11.8166666666667" style="4" customWidth="1"/>
-    <col min="35" max="35" width="13.725" style="4" customWidth="1"/>
-    <col min="36" max="36" width="10.2666666666667" style="4" customWidth="1"/>
-    <col min="37" max="37" width="2.90833333333333" style="4" customWidth="1"/>
-    <col min="38" max="16384" width="1.81666666666667" style="4"/>
+    <col min="23" max="26" width="2.62962962962963" style="4" customWidth="1"/>
+    <col min="27" max="27" width="3.62962962962963" style="4" customWidth="1"/>
+    <col min="28" max="28" width="2.18518518518518" style="3" customWidth="1"/>
+    <col min="29" max="29" width="12.2685185185185" style="4" customWidth="1"/>
+    <col min="30" max="30" width="4.72222222222222" style="4" customWidth="1"/>
+    <col min="31" max="31" width="10.9074074074074" style="4" customWidth="1"/>
+    <col min="32" max="32" width="11.3703703703704" style="4" customWidth="1"/>
+    <col min="33" max="33" width="3.62962962962963" style="4" customWidth="1"/>
+    <col min="34" max="34" width="11.8148148148148" style="4" customWidth="1"/>
+    <col min="35" max="35" width="13.7222222222222" style="4" customWidth="1"/>
+    <col min="36" max="36" width="10.2685185185185" style="4" customWidth="1"/>
+    <col min="37" max="37" width="2.90740740740741" style="4" customWidth="1"/>
+    <col min="38" max="16384" width="1.81481481481481" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:27">
+    <row r="1" ht="20.4" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
@@ -10175,7 +10180,7 @@
       <c r="H3" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="18" t="s">
         <v>274</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -10192,13 +10197,13 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="20" t="s">
         <v>275</v>
       </c>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-      <c r="AA3" s="21"/>
+      <c r="AA3" s="22"/>
     </row>
     <row r="4" ht="58" customHeight="1" spans="1:27">
       <c r="A4" s="14"/>
@@ -10246,11 +10251,11 @@
       <c r="U4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="20"/>
+      <c r="V4" s="21"/>
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
-      <c r="AA4" s="22"/>
+      <c r="AA4" s="23"/>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:26">
       <c r="A5" s="6" t="s">
@@ -10280,7 +10285,7 @@
       <c r="I5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="19" t="s">
         <v>279</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -10356,17 +10361,17 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="12.2666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.5416666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.9083333333333" customWidth="1"/>
-    <col min="7" max="7" width="15.0916666666667" customWidth="1"/>
-    <col min="8" max="8" width="12.1833333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.5416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.2685185185185" customWidth="1"/>
+    <col min="4" max="4" width="11.5462962962963" customWidth="1"/>
+    <col min="5" max="5" width="12.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="15.0925925925926" customWidth="1"/>
+    <col min="8" max="8" width="12.1851851851852" customWidth="1"/>
+    <col min="9" max="9" width="14.5462962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:10">
+    <row r="1" ht="20.4" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>291</v>
       </c>
